--- a/biology/Botanique/Scandiceae/Scandiceae.xlsx
+++ b/biology/Botanique/Scandiceae/Scandiceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Scandiceae sont une tribu de plantes de la sous-famille des Apioideae dans la famille des Apiaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Nom</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La tribu des Scandiceae est décrite en 1820 par le botaniste allemand Kurt Sprengel[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tribu des Scandiceae est décrite en 1820 par le botaniste allemand Kurt Sprengel.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La tribu des Scandiceae comprend quatre sous-tribus selon NCBI[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La tribu des Scandiceae comprend quatre sous-tribus selon NCBI :
 Daucinae
 Ferulinae
 Scandicinae
